--- a/M0.4D0.01E0.9A0.8_100x100_MC25_table_experiment.xlsx
+++ b/M0.4D0.01E0.9A0.8_100x100_MC25_table_experiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3145,6 +3145,781 @@
         <v>0.7455000000000001</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B109" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>[2894]</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>2894</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3977</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.7277</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B110" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>[3049]</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>3049</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4058</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.7514</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B111" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>[2928, 43]</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>2971</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3996</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.7435</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B112" t="n">
+        <v>199999</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>[2816]</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>2816</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3930</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.7165</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B113" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>[3053]</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>3053</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4087</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B114" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>[2918]</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>2918</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3947</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.7393</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B115" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>[2842]</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3915</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.7259</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B116" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>[3047]</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>3047</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3997</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.7623</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2051</v>
+      </c>
+      <c r="B117" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>[3001]</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>3001</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3990</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.7521</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B118" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>[2935]</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>2935</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3970</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.7393</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2059</v>
+      </c>
+      <c r="B119" t="n">
+        <v>199999</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>[2848]</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>2848</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3974</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.7167</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2063</v>
+      </c>
+      <c r="B120" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>[2864]</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>2864</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3935</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.7278</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2067</v>
+      </c>
+      <c r="B121" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>[2842]</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3873</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.7338</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2071</v>
+      </c>
+      <c r="B122" t="n">
+        <v>324999</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>[2838]</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>2838</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3963</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.7161</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2075</v>
+      </c>
+      <c r="B123" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>[2947]</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>2947</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3988</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.739</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2079</v>
+      </c>
+      <c r="B124" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>[3010]</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>3010</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4037</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.7456</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2083</v>
+      </c>
+      <c r="B125" t="n">
+        <v>299999</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>[2909, 28]</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>2937</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3949</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.7437</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2087</v>
+      </c>
+      <c r="B126" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>[2860]</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>2860</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3990</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.7168</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2091</v>
+      </c>
+      <c r="B127" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>[3070]</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>3070</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4056</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.7569</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2095</v>
+      </c>
+      <c r="B128" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>[3008]</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>3008</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3977</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.7563</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2099</v>
+      </c>
+      <c r="B129" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>[3044]</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>3044</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4057</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.7503</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2103</v>
+      </c>
+      <c r="B130" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>[3024]</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>3024</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4042</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.7481</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2108</v>
+      </c>
+      <c r="B131" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>[3116]</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>3116</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4104</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.7593</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2113</v>
+      </c>
+      <c r="B132" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>[2876, 28]</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>2904</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3964</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.7326</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2117</v>
+      </c>
+      <c r="B133" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>[2994]</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>2994</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4024</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.744</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2121</v>
+      </c>
+      <c r="B134" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>[2956]</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>2956</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4045</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.7308</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2125</v>
+      </c>
+      <c r="B135" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>[2866]</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>2866</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3945</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.7265</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2129</v>
+      </c>
+      <c r="B136" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>[2841]</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>2841</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3936</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.7218</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2133</v>
+      </c>
+      <c r="B137" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>[2856]</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>2856</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3903</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.7317</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>[2933, 31]</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>2964</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4008</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.7395</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2141</v>
+      </c>
+      <c r="B139" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>[2886]</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>2886</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3957</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.7292999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/M0.4D0.01E0.9A0.8_100x100_MC25_table_experiment.xlsx
+++ b/M0.4D0.01E0.9A0.8_100x100_MC25_table_experiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3920,6 +3920,331 @@
         <v>0.7292999999999999</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2145</v>
+      </c>
+      <c r="B140" t="n">
+        <v>199999</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>[2880]</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>2880</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3956</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.728</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2149</v>
+      </c>
+      <c r="B141" t="n">
+        <v>199999</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>[2834]</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>2834</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3983</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.7115</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2153</v>
+      </c>
+      <c r="B142" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>[2925]</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>2925</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3939</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.7426</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2157</v>
+      </c>
+      <c r="B143" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>[2929]</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>2929</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3960</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.7396</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2161</v>
+      </c>
+      <c r="B144" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>[2890]</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>2890</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3965</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.7289</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2165</v>
+      </c>
+      <c r="B145" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>[2978]</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>2978</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4029</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.7391</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2169</v>
+      </c>
+      <c r="B146" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>[3041]</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>3041</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4047</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.7514</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2173</v>
+      </c>
+      <c r="B147" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>[2874]</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>2874</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3946</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.7282999999999999</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>2177</v>
+      </c>
+      <c r="B148" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>[2845]</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>2845</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4014</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.7088</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>2181</v>
+      </c>
+      <c r="B149" t="n">
+        <v>224999</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>[2928]</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>2928</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3992</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.7335</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2185</v>
+      </c>
+      <c r="B150" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>[2923, 44]</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>2967</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3968</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.7477</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2189</v>
+      </c>
+      <c r="B151" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>[2895]</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>2895</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3994</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.7248</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2193</v>
+      </c>
+      <c r="B152" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>[3056]</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>3056</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4095</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.7463</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/M0.4D0.01E0.9A0.8_100x100_MC25_table_experiment.xlsx
+++ b/M0.4D0.01E0.9A0.8_100x100_MC25_table_experiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4245,6 +4245,331 @@
         <v>0.7463</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2197</v>
+      </c>
+      <c r="B153" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>[3067]</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>3067</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4084</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2201</v>
+      </c>
+      <c r="B154" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>[2940]</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>2940</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4001</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.7348</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2205</v>
+      </c>
+      <c r="B155" t="n">
+        <v>274999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>[2967]</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>2967</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4005</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.7408</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>2209</v>
+      </c>
+      <c r="B156" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>[2958]</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>2958</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3982</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.7428</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>2213</v>
+      </c>
+      <c r="B157" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>[2770]</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>2770</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3919</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.7068</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>2217</v>
+      </c>
+      <c r="B158" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>[2903]</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>2903</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3997</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.7262999999999999</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2221</v>
+      </c>
+      <c r="B159" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>[2754, 26]</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>2780</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3925</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.7083</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>2225</v>
+      </c>
+      <c r="B160" t="n">
+        <v>199999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>[2927]</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>2927</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3952</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.7406</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>2229</v>
+      </c>
+      <c r="B161" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>[2967]</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>2967</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4008</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.7403</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2233</v>
+      </c>
+      <c r="B162" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>[2943]</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>2943</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3991</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.7374000000000001</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2237</v>
+      </c>
+      <c r="B163" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>[2816]</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>2816</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3981</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.7074</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2241</v>
+      </c>
+      <c r="B164" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>[2960]</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>2960</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3957</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2245</v>
+      </c>
+      <c r="B165" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>[2936, 63]</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>2999</v>
+      </c>
+      <c r="F165" t="n">
+        <v>4090</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.7333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/M0.4D0.01E0.9A0.8_100x100_MC25_table_experiment.xlsx
+++ b/M0.4D0.01E0.9A0.8_100x100_MC25_table_experiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4570,6 +4570,906 @@
         <v>0.7333</v>
       </c>
     </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2249</v>
+      </c>
+      <c r="B166" t="n">
+        <v>374999</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>[2963]</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>2963</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3998</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.7411</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2253</v>
+      </c>
+      <c r="B167" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>[2960]</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>2960</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3931</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>2257</v>
+      </c>
+      <c r="B168" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>[2877, 37]</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>2914</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4010</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.7267</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2261</v>
+      </c>
+      <c r="B169" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>[2846, 33]</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>2879</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3942</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.7302999999999999</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2265</v>
+      </c>
+      <c r="B170" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>[3045]</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>3045</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4122</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.7387</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2269</v>
+      </c>
+      <c r="B171" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>[2849]</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>2849</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3991</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.7139</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2273</v>
+      </c>
+      <c r="B172" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>[2957]</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>2957</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4030</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.7337</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2277</v>
+      </c>
+      <c r="B173" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>[2988]</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>2988</v>
+      </c>
+      <c r="F173" t="n">
+        <v>4072</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.7338</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2281</v>
+      </c>
+      <c r="B174" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>[2913]</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>2913</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4011</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.7262999999999999</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>2285</v>
+      </c>
+      <c r="B175" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>[2974]</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>2974</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3992</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2290</v>
+      </c>
+      <c r="B176" t="n">
+        <v>199999</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>[2805, 36]</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>2841</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4012</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.7081</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2294</v>
+      </c>
+      <c r="B177" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>[2999, 25]</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>3024</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4062</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2298</v>
+      </c>
+      <c r="B178" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>[2954]</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>2954</v>
+      </c>
+      <c r="F178" t="n">
+        <v>4029</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.7332</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2302</v>
+      </c>
+      <c r="B179" t="n">
+        <v>324999</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>[2909]</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>2909</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3985</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2306</v>
+      </c>
+      <c r="B180" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>[2955]</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>2955</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4104</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2310</v>
+      </c>
+      <c r="B181" t="n">
+        <v>274999</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>[2926]</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>2926</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3962</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.7385</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2314</v>
+      </c>
+      <c r="B182" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>[2916]</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>2916</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3985</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.7317</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>2318</v>
+      </c>
+      <c r="B183" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>[26, 2842]</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>2868</v>
+      </c>
+      <c r="F183" t="n">
+        <v>3906</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.7343</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2322</v>
+      </c>
+      <c r="B184" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>[2840]</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>2840</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3941</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.7206</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>2326</v>
+      </c>
+      <c r="B185" t="n">
+        <v>299999</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>[2928]</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>2928</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3973</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.737</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>2330</v>
+      </c>
+      <c r="B186" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>[2824]</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>2824</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3945</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.7158</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>2334</v>
+      </c>
+      <c r="B187" t="n">
+        <v>224999</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>[3028]</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>3028</v>
+      </c>
+      <c r="F187" t="n">
+        <v>4146</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.7302999999999999</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>2338</v>
+      </c>
+      <c r="B188" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>[2969]</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>2969</v>
+      </c>
+      <c r="F188" t="n">
+        <v>3992</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.7437</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2342</v>
+      </c>
+      <c r="B189" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>[2982]</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>2982</v>
+      </c>
+      <c r="F189" t="n">
+        <v>4047</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.7368</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2346</v>
+      </c>
+      <c r="B190" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>[2975]</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>2975</v>
+      </c>
+      <c r="F190" t="n">
+        <v>3988</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2350</v>
+      </c>
+      <c r="B191" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>[2990]</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>2990</v>
+      </c>
+      <c r="F191" t="n">
+        <v>4043</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.7395</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2354</v>
+      </c>
+      <c r="B192" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>[2869]</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>2869</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3986</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.7198</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2358</v>
+      </c>
+      <c r="B193" t="n">
+        <v>274999</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>[2909]</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>2909</v>
+      </c>
+      <c r="F193" t="n">
+        <v>3971</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.7326</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>2362</v>
+      </c>
+      <c r="B194" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>[3062]</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>3062</v>
+      </c>
+      <c r="F194" t="n">
+        <v>4052</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.7557</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2366</v>
+      </c>
+      <c r="B195" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>[2770, 27]</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>2797</v>
+      </c>
+      <c r="F195" t="n">
+        <v>3893</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.7185</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2370</v>
+      </c>
+      <c r="B196" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>[3064]</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>3064</v>
+      </c>
+      <c r="F196" t="n">
+        <v>4062</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.7543</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2374</v>
+      </c>
+      <c r="B197" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>[2875]</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>2875</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3974</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.7235</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2378</v>
+      </c>
+      <c r="B198" t="n">
+        <v>399999</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>[2879, 32]</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>2911</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3952</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.7366</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2382</v>
+      </c>
+      <c r="B199" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>[2868]</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>2868</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3937</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.7285</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2386</v>
+      </c>
+      <c r="B200" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>[3083]</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>3083</v>
+      </c>
+      <c r="F200" t="n">
+        <v>4041</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.7629</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2390</v>
+      </c>
+      <c r="B201" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>[2739]</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>2739</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3909</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.7007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
